--- a/Data/collapsed database manual cases/sinaloa_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/sinaloa_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/sinaloa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4DDA14FB-FFE1-E048-96A5-F2F00C1BE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B38E69E-A8E8-DE43-94BF-B822A85118B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E85EA77-5F54-3A45-A6ED-EFD901530EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="263">
   <si>
     <t>uniqueid</t>
   </si>
@@ -680,13 +680,145 @@
   </si>
   <si>
     <t>https://www.luznoticias.mx/2022-12-02/sinaloa/a-dos-decadas-el-quimico-benitez-podria-ser-el-segundo-alcalde-desaforado-de-mazatlan/151863</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>MANUEL GUILLERMO CHAPMAN MORENO</t>
+  </si>
+  <si>
+    <t>PAS_MORENA</t>
+  </si>
+  <si>
+    <t>GERARDO OCTAVIO VARGAS LANDEROS</t>
+  </si>
+  <si>
+    <t>AGLAEE MONTOYA MARTINEZ</t>
+  </si>
+  <si>
+    <t>JOSE PAZ LOPEZ ELENES</t>
+  </si>
+  <si>
+    <t>GRISELDA QUINTANA GARCIA</t>
+  </si>
+  <si>
+    <t>JESUS ESTRADA FERREIRO</t>
+  </si>
+  <si>
+    <t>OMAR RUBEN GIL SANTINI</t>
+  </si>
+  <si>
+    <t>AMALIA GASTELUM BARRAZA</t>
+  </si>
+  <si>
+    <t>BLANCA ESTHELA GARCIA SANCHEZ</t>
+  </si>
+  <si>
+    <t>MARIA AURELIA LEAL LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTIN DE JESUS AHUMADA QUINTERO</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO BENITEZ TORRES</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC_PAS</t>
+  </si>
+  <si>
+    <t>MARIA ELIZALDE RUELAS</t>
+  </si>
+  <si>
+    <t>CLAUDIA LILIANA VALDEZ AGUILAR</t>
+  </si>
+  <si>
+    <t>ARMANDO CAMACHO AGUILAR</t>
+  </si>
+  <si>
+    <t>ELIAZAR GUTIERREZ ANGULO</t>
+  </si>
+  <si>
+    <t>MARGOTH URREA PEREZ</t>
+  </si>
+  <si>
+    <t>https://www.pan-sinaloa.org.mx/sitioanterior/wp-content/uploads/2018/04/convenio-de-coalicion-por-sinaloa-al-frente.pdf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/reel/1406758773024085</t>
+  </si>
+  <si>
+    <t>https://www.congresosinaloa.gob.mx/diputado61/maria-lorena-perez-olivas/</t>
+  </si>
+  <si>
+    <t>https://www.congresosinaloa.gob.mx/diputado61/jose-felipe-garzon-lopez/</t>
+  </si>
+  <si>
+    <t>https://transparencia.prisinaloa.org.mx/portal/a101/017/2021/CV_QUINTANA_GARCIA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.congresosinaloa.gob.mx/diputado61/angel-geovani-escobar-manjarrez/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.noroeste.com.mx/buen-vivir/nombra-pri-a-carlos-mario-ortiz-sanchez-candidato-a-la-alcaldia-de-salvador-alvarado-NBNO1007974&amp;ved=2ahUKEwjMg6y95uySAxURlmoFHU3nKncQFnoECBgQAQ&amp;usg=AOvVaw0NZLWgi3x75E8EO7RgOOcp</t>
+  </si>
+  <si>
+    <t>https://www.congresosinaloa.gob.mx/diputado61/nubia-xiclali-ramos-carbajal/</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/mexico/2023/06/21/fallecio-ex-alcaldesa-de-sinaloa-presumen-que-perdio-la-vida-tras-un-canalazo/</t>
+  </si>
+  <si>
+    <t>https://www.ieesinaloa.mx/wp-content/uploads/Transparencia/SecretariaEjecutiva/ActasyAcuerdos2018/180123-NovenaOrd/180123-01_Convenio-de-Coalición-PT-MORENA-y-PES.pdf</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>https://latinus.us/mexico/2025/10/8/procesan-al-exalcade-gerardo-vargas-landeros-ocho-colaboradores-por-un-contrato-irregular-153885.html</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/jose-paz-lopez-elenes/presidentes-municipales-alcaldes/sinaloa</t>
+  </si>
+  <si>
+    <t>https://riodoce.mx/2022/03/12/renuncia-al-pas-carla-corrales-alcaldesa-de-cosala/</t>
+  </si>
+  <si>
+    <t>https://www.noroeste.com.mx/culiacan/estrada-ferreiro-se-desmarca-de-morena-anuncia-que-ya-no-buscara-candidatura-al-senado-NX5653294</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/amalia-gastelum-barraza/presidentes-municipales-alcaldes/sinaloa</t>
+  </si>
+  <si>
+    <t>https://losnoticieristas.com/sinaloa/sinaloa-sur/2023/03/adios-al-pas-se-deslinda-alcaldesa-de-escuinapa-al-partido-sinaloense-y-apoya-a-rocha-y-democracia-de-la-uas-380170/</t>
+  </si>
+  <si>
+    <t>https://riodoce.mx/2021/03/20/martin-ahumada-quintero-sera-candidato-de-morena-a-alcaldia-de-guasave/</t>
+  </si>
+  <si>
+    <t>https://elfaronoticias.com.mx/exhorta-el-pas-al-quimico-luis-guillermo-benitez-a-trabajar-por-un-mejor-mazatlan/</t>
+  </si>
+  <si>
+    <t>https://www.puntualizando.com/maria-elizalde-respeta-la-desicion-de-morena-en-cuanto-al-candidato-que-han-postulado-para-mocorito/</t>
+  </si>
+  <si>
+    <t>https://www.noroeste.com.mx/elsur/claudia-valdez-abanderada-de-morena-en-rosario-asegura-ser-respetuosa-de-lo-que-la-ciudadania-decida-XE7556909</t>
+  </si>
+  <si>
+    <t>https://salvadoralvarado.gob.mx/armando-camacho-se-registra-ante-morena-para-buscar-la-reeleccion/</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/margoth-urrea-perez/presidentes-municipales-alcaldes/sinaloa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +851,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -740,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:I68"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="137" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1270,90 +1410,90 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25001</v>
+        <v>25011</v>
       </c>
       <c r="B5">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25001</v>
+        <v>25009</v>
       </c>
       <c r="B6">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="O6">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -1516,90 +1656,90 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>25002</v>
+        <v>25015</v>
       </c>
       <c r="B11">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="O11">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="P11" t="s">
         <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>25002</v>
+        <v>25017</v>
       </c>
       <c r="B12">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="O12">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -1801,48 +1941,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>25003</v>
+        <v>25012</v>
       </c>
       <c r="B18">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>192</v>
+        <v>126</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="O18">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -2046,40 +2186,46 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>25004</v>
+        <v>25006</v>
       </c>
       <c r="B24">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O24">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -2283,40 +2429,46 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>25005</v>
+        <v>25012</v>
       </c>
       <c r="B30">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
       </c>
       <c r="J30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O30">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -2438,37 +2590,37 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>25006</v>
+        <v>25001</v>
       </c>
       <c r="B34">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O34">
         <v>2010</v>
@@ -2523,46 +2675,46 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>25006</v>
+        <v>25002</v>
       </c>
       <c r="B36">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="L36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P36" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -2769,46 +2921,46 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>25007</v>
+        <v>25009</v>
       </c>
       <c r="B42">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O42">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P42" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -3012,46 +3164,46 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>25008</v>
+        <v>25010</v>
       </c>
       <c r="B48">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O48">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P48" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -3091,46 +3243,46 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>25009</v>
+        <v>25012</v>
       </c>
       <c r="B50">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
         <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="O50">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="P50" t="s">
         <v>21</v>
       </c>
       <c r="Q50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -3217,7 +3369,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>25009</v>
+        <v>25014</v>
       </c>
       <c r="B53">
         <v>2013</v>
@@ -3226,25 +3378,25 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s">
         <v>34</v>
@@ -3261,46 +3413,46 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>25009</v>
+        <v>25015</v>
       </c>
       <c r="B54">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O54">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="P54" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -3466,7 +3618,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>25010</v>
+        <v>25017</v>
       </c>
       <c r="B59">
         <v>2013</v>
@@ -3475,25 +3627,25 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="J59" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L59" t="s">
         <v>34</v>
@@ -3510,7 +3662,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>25010</v>
+        <v>25002</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -3519,28 +3671,28 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I60" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J60" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O60">
         <v>2016</v>
@@ -3589,46 +3741,40 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>25011</v>
+        <v>25004</v>
       </c>
       <c r="B62">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
-      </c>
-      <c r="H62" t="s">
-        <v>189</v>
-      </c>
-      <c r="I62" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="O62">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P62" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q62" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -3830,12 +3976,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>25012</v>
       </c>
       <c r="B68">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -3844,34 +3990,34 @@
         <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>218</v>
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="O68">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q68" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -3917,95 +4063,89 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>25012</v>
+        <v>25016</v>
       </c>
       <c r="B70">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K70" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="L70" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O70">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P70" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q70" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>25012</v>
+        <v>25018</v>
       </c>
       <c r="B71">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O71">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P71" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q71" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>25012</v>
+        <v>25001</v>
       </c>
       <c r="B72">
         <v>2016</v>
@@ -4014,28 +4154,28 @@
         <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K72" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="L72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O72">
         <v>2016</v>
@@ -4248,7 +4388,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>25013</v>
+        <v>25003</v>
       </c>
       <c r="B78">
         <v>2016</v>
@@ -4257,25 +4397,25 @@
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
         <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K78" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="L78" t="s">
         <v>35</v>
@@ -4450,51 +4590,45 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>25014</v>
+        <v>25005</v>
       </c>
       <c r="B83">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>149</v>
-      </c>
-      <c r="H83" t="s">
-        <v>189</v>
-      </c>
-      <c r="I83" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="J83" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="K83" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="L83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O83">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P83" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>25014</v>
+        <v>25006</v>
       </c>
       <c r="B84">
         <v>2016</v>
@@ -4503,19 +4637,25 @@
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>194</v>
       </c>
       <c r="J84" t="s">
         <v>37</v>
       </c>
       <c r="K84" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="L84" t="s">
         <v>35</v>
@@ -4567,46 +4707,46 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>25015</v>
+        <v>25007</v>
       </c>
       <c r="B86">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J86" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="K86" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="L86" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O86">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P86" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q86" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -4693,51 +4833,51 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>25015</v>
+        <v>25008</v>
       </c>
       <c r="B89">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="H89" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K89" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O89">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P89" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q89" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>25015</v>
+        <v>25009</v>
       </c>
       <c r="B90">
         <v>2016</v>
@@ -4746,25 +4886,25 @@
         <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
         <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J90" t="s">
         <v>37</v>
       </c>
       <c r="K90" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="L90" t="s">
         <v>35</v>
@@ -4980,7 +5120,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>25016</v>
+        <v>25010</v>
       </c>
       <c r="B96">
         <v>2016</v>
@@ -4989,19 +5129,25 @@
         <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>114</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>202</v>
       </c>
       <c r="J96" t="s">
         <v>37</v>
       </c>
       <c r="K96" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="L96" t="s">
         <v>35</v>
@@ -5056,46 +5202,46 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>25017</v>
+        <v>25013</v>
       </c>
       <c r="B98">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="H98" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J98" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="L98" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O98">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="P98" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q98" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -5182,51 +5328,45 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>25017</v>
+        <v>25014</v>
       </c>
       <c r="B101">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
-      </c>
-      <c r="H101" t="s">
-        <v>189</v>
-      </c>
-      <c r="I101" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="J101" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="K101" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="L101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O101">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P101" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q101" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>25017</v>
+        <v>25015</v>
       </c>
       <c r="B102">
         <v>2016</v>
@@ -5235,28 +5375,28 @@
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
         <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H102" t="s">
         <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J102" t="s">
         <v>37</v>
       </c>
       <c r="K102" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L102" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="O102">
         <v>2016</v>
@@ -5469,7 +5609,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>25018</v>
+        <v>25017</v>
       </c>
       <c r="B108">
         <v>2016</v>
@@ -5478,28 +5618,28 @@
         <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
         <v>21</v>
       </c>
       <c r="I108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J108" t="s">
         <v>37</v>
       </c>
       <c r="K108" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L108" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="O108">
         <v>2016</v>
@@ -5544,6 +5684,586 @@
       </c>
       <c r="Q109" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>25013</v>
+      </c>
+      <c r="B110">
+        <v>2021</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>144</v>
+      </c>
+      <c r="H110" t="s">
+        <v>143</v>
+      </c>
+      <c r="I110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>25014</v>
+      </c>
+      <c r="B111">
+        <v>2021</v>
+      </c>
+      <c r="E111" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>25002</v>
+      </c>
+      <c r="B112">
+        <v>2021</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>223</v>
+      </c>
+      <c r="H112" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>25003</v>
+      </c>
+      <c r="B113">
+        <v>2021</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>25004</v>
+      </c>
+      <c r="B114">
+        <v>2021</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>25005</v>
+      </c>
+      <c r="B115">
+        <v>2021</v>
+      </c>
+      <c r="E115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>25008</v>
+      </c>
+      <c r="B116">
+        <v>2021</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>99</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>25010</v>
+      </c>
+      <c r="B117">
+        <v>2021</v>
+      </c>
+      <c r="E117" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" t="s">
+        <v>115</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>25015</v>
+      </c>
+      <c r="B118">
+        <v>2021</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>25017</v>
+      </c>
+      <c r="B119">
+        <v>2021</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>177</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>25001</v>
+      </c>
+      <c r="B120">
+        <v>2021</v>
+      </c>
+      <c r="E120" t="s">
+        <v>219</v>
+      </c>
+      <c r="F120" t="s">
+        <v>220</v>
+      </c>
+      <c r="H120" t="s">
+        <v>217</v>
+      </c>
+      <c r="I120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>25006</v>
+      </c>
+      <c r="B121">
+        <v>2021</v>
+      </c>
+      <c r="E121" t="s">
+        <v>219</v>
+      </c>
+      <c r="F121" t="s">
+        <v>226</v>
+      </c>
+      <c r="H121" t="s">
+        <v>249</v>
+      </c>
+      <c r="I121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>25007</v>
+      </c>
+      <c r="B122">
+        <v>2021</v>
+      </c>
+      <c r="E122" t="s">
+        <v>219</v>
+      </c>
+      <c r="F122" t="s">
+        <v>227</v>
+      </c>
+      <c r="H122" t="s">
+        <v>249</v>
+      </c>
+      <c r="I122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>25011</v>
+      </c>
+      <c r="B123">
+        <v>2021</v>
+      </c>
+      <c r="E123" t="s">
+        <v>219</v>
+      </c>
+      <c r="F123" t="s">
+        <v>230</v>
+      </c>
+      <c r="H123" t="s">
+        <v>250</v>
+      </c>
+      <c r="I123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>25012</v>
+      </c>
+      <c r="B124">
+        <v>2021</v>
+      </c>
+      <c r="E124" t="s">
+        <v>219</v>
+      </c>
+      <c r="F124" t="s">
+        <v>232</v>
+      </c>
+      <c r="H124" t="s">
+        <v>249</v>
+      </c>
+      <c r="I124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>25018</v>
+      </c>
+      <c r="B125">
+        <v>2021</v>
+      </c>
+      <c r="E125" t="s">
+        <v>219</v>
+      </c>
+      <c r="F125" t="s">
+        <v>237</v>
+      </c>
+      <c r="H125" t="s">
+        <v>217</v>
+      </c>
+      <c r="I125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>25001</v>
+      </c>
+      <c r="B126">
+        <v>2024</v>
+      </c>
+      <c r="E126" t="s">
+        <v>221</v>
+      </c>
+      <c r="F126" t="s">
+        <v>222</v>
+      </c>
+      <c r="H126" t="s">
+        <v>249</v>
+      </c>
+      <c r="I126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>25003</v>
+      </c>
+      <c r="B127">
+        <v>2024</v>
+      </c>
+      <c r="E127" t="s">
+        <v>221</v>
+      </c>
+      <c r="F127" t="s">
+        <v>224</v>
+      </c>
+      <c r="H127" t="s">
+        <v>249</v>
+      </c>
+      <c r="I127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>25004</v>
+      </c>
+      <c r="B128">
+        <v>2024</v>
+      </c>
+      <c r="E128" t="s">
+        <v>221</v>
+      </c>
+      <c r="F128" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" t="s">
+        <v>143</v>
+      </c>
+      <c r="I128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>25005</v>
+      </c>
+      <c r="B129">
+        <v>2024</v>
+      </c>
+      <c r="E129" t="s">
+        <v>221</v>
+      </c>
+      <c r="F129" t="s">
+        <v>74</v>
+      </c>
+      <c r="H129" t="s">
+        <v>143</v>
+      </c>
+      <c r="I129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>25006</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+      <c r="E130" t="s">
+        <v>221</v>
+      </c>
+      <c r="F130" t="s">
+        <v>226</v>
+      </c>
+      <c r="H130" t="s">
+        <v>249</v>
+      </c>
+      <c r="I130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>25007</v>
+      </c>
+      <c r="B131">
+        <v>2024</v>
+      </c>
+      <c r="E131" t="s">
+        <v>221</v>
+      </c>
+      <c r="F131" t="s">
+        <v>228</v>
+      </c>
+      <c r="H131" t="s">
+        <v>249</v>
+      </c>
+      <c r="I131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>25009</v>
+      </c>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+      <c r="E132" t="s">
+        <v>221</v>
+      </c>
+      <c r="F132" t="s">
+        <v>229</v>
+      </c>
+      <c r="H132" t="s">
+        <v>143</v>
+      </c>
+      <c r="I132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>25011</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+      <c r="E133" t="s">
+        <v>221</v>
+      </c>
+      <c r="F133" t="s">
+        <v>231</v>
+      </c>
+      <c r="H133" t="s">
+        <v>249</v>
+      </c>
+      <c r="I133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>25012</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+      <c r="E134" t="s">
+        <v>221</v>
+      </c>
+      <c r="F134" t="s">
+        <v>232</v>
+      </c>
+      <c r="H134" t="s">
+        <v>143</v>
+      </c>
+      <c r="I134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>25013</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+      <c r="E135" t="s">
+        <v>221</v>
+      </c>
+      <c r="F135" t="s">
+        <v>234</v>
+      </c>
+      <c r="H135" t="s">
+        <v>249</v>
+      </c>
+      <c r="I135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>25014</v>
+      </c>
+      <c r="B136">
+        <v>2024</v>
+      </c>
+      <c r="E136" t="s">
+        <v>221</v>
+      </c>
+      <c r="F136" t="s">
+        <v>235</v>
+      </c>
+      <c r="H136" t="s">
+        <v>249</v>
+      </c>
+      <c r="I136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>25015</v>
+      </c>
+      <c r="B137">
+        <v>2024</v>
+      </c>
+      <c r="E137" t="s">
+        <v>221</v>
+      </c>
+      <c r="F137" t="s">
+        <v>236</v>
+      </c>
+      <c r="H137" t="s">
+        <v>249</v>
+      </c>
+      <c r="I137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>25018</v>
+      </c>
+      <c r="B138">
+        <v>2024</v>
+      </c>
+      <c r="E138" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+      <c r="H138" t="s">
+        <v>249</v>
+      </c>
+      <c r="I138" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5559,6 +6279,9 @@
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:S138">
+      <sortCondition ref="B1:B138"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
